--- a/data/trans_dic/IP19C05-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP19C05-Estudios-trans_dic.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -700,32 +700,32 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,28</t>
+          <t>0,0; 10,33</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,08</t>
+          <t>0,0; 8,06</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,15</t>
+          <t>0,0; 11,7</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,35</t>
+          <t>0,0; 4,88</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,92</t>
+          <t>0,0; 5,51</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,81</t>
+          <t>0,0; 5,77</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,55; 3,66</t>
+          <t>0,52; 3,27</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,79; 3,59</t>
+          <t>0,6; 3,37</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,63; 3,78</t>
+          <t>0,6; 3,6</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,26; 2,33</t>
+          <t>0,26; 2,48</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,66; 3,72</t>
+          <t>0,63; 3,73</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,44; 4,9</t>
+          <t>1,54; 5,24</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,55; 2,29</t>
+          <t>0,56; 2,22</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,91; 2,95</t>
+          <t>0,88; 3,09</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,31; 3,61</t>
+          <t>1,27; 3,64</t>
         </is>
       </c>
     </row>
@@ -910,42 +910,42 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,8; 6,87</t>
+          <t>0,8; 6,93</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,7; 6,28</t>
+          <t>0,71; 7,49</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,23</t>
+          <t>0,0; 5,03</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,9; 10,42</t>
+          <t>1,98; 9,84</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,61</t>
+          <t>0,0; 4,7</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,15</t>
+          <t>0,0; 2,1</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,87; 6,97</t>
+          <t>1,71; 6,69</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,76; 4,43</t>
+          <t>0,75; 4,48</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,37; 2,24</t>
+          <t>0,37; 2,27</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,8; 3,22</t>
+          <t>0,8; 3,06</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,74; 3,19</t>
+          <t>0,81; 3,37</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,35; 2,11</t>
+          <t>0,35; 2,08</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,5; 4,44</t>
+          <t>1,39; 4,32</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,46; 4,34</t>
+          <t>1,41; 4,1</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,48; 1,66</t>
+          <t>0,49; 1,71</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,32; 3,3</t>
+          <t>1,41; 3,21</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,35; 3,12</t>
+          <t>1,35; 3,15</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP19C05-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP19C05-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -632,32 +632,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>1,86%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>2,64%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>2,55%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>1,86%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>2,64%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>2,55%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>0,0; 10,35</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 9,27</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 10,92</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>0; 2,95</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="G5" s="2" t="inlineStr">
         <is>
           <t>0; 3,19</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>0; 4,66</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 10,33</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 8,06</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 11,7</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,88</t>
+          <t>0,0; 4,84</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,51</t>
+          <t>0,0; 4,29</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,77</t>
+          <t>0,0; 5,71</t>
         </is>
       </c>
     </row>
@@ -742,32 +742,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>0,82%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1,77%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>2,86%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>1,44%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>1,7%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>1,61%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>0,82%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>1,77%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>2,86%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,52; 3,27</t>
+          <t>0,26; 2,19</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,6; 3,37</t>
+          <t>0,68; 4,14</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,6; 3,6</t>
+          <t>1,5; 5,24</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,26; 2,48</t>
+          <t>0,57; 3,31</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,63; 3,73</t>
+          <t>0,6; 3,4</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,54; 5,24</t>
+          <t>0,6; 3,56</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,56; 2,22</t>
+          <t>0,54; 2,06</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,88; 3,09</t>
+          <t>0,91; 3,02</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,27; 3,64</t>
+          <t>1,31; 3,58</t>
         </is>
       </c>
     </row>
@@ -852,32 +852,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>0,84%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>4,82%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1,5%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>2,6%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>2,39%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,84%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>4,82%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>1,5%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>0,0; 4,99</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1,67; 9,97</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 5,11</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>0; 1,74</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>0,8; 6,93</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>0,71; 7,49</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 5,03</t>
-        </is>
-      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,98; 9,84</t>
+          <t>0,79; 6,39</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,7</t>
+          <t>0,7; 6,29</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,1</t>
+          <t>0,0; 2,13</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,71; 6,69</t>
+          <t>1,77; 7,2</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,75; 4,48</t>
+          <t>0,43; 4,08</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>0,97%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>2,62%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>2,51%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>0,98%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>1,7%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>1,67%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>0,97%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>2,62%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>2,51%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,37; 2,27</t>
+          <t>0,36; 2,09</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,8; 3,06</t>
+          <t>1,51; 4,47</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,81; 3,37</t>
+          <t>1,4; 4,15</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,35; 2,08</t>
+          <t>0,37; 2,19</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,39; 4,32</t>
+          <t>0,77; 3,1</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,41; 4,1</t>
+          <t>0,66; 3,1</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,49; 1,71</t>
+          <t>0,48; 1,74</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,41; 3,21</t>
+          <t>1,42; 3,18</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,35; 3,15</t>
+          <t>1,35; 3,12</t>
         </is>
       </c>
     </row>
